--- a/nubank.xlsx
+++ b/nubank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f2a7463e3b49451/Documentos/2° semestre - Insper/Ciência dos Dados/Projeto_1--Cdados/Projeto1_AdneyLister/Projeto1_AdneyLister/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ef39271b612bb54/Imagens/ENG INSPER 2021_1/Adney/Projeto_1--Cdados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{6C4BFD76-E44D-46A2-A18F-946C8F1DB197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{526C69DB-84F9-4B1D-B80F-9FA2E3AF5F48}"/>
+  <xr:revisionPtr revIDLastSave="597" documentId="13_ncr:1_{6C4BFD76-E44D-46A2-A18F-946C8F1DB197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{899A10F6-4A02-4397-87AE-42CFA4986171}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="20730" windowHeight="11160" tabRatio="426" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="803">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2710,7 +2710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2721,6 +2721,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3061,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7087,1515 +7093,2422 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.08984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="7" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="7" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" s="7" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="7" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="7" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="7" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A149" s="7" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A152" s="7" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="7" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A165" s="7" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="7" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="7" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="7" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A169" s="7" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="7" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="7" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A172" s="7" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="7" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A175" s="7" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" s="7" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="7" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="7" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A180" s="7" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A181" s="7" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="7" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="7" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A184" s="7" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185" s="7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="7" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="7" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="7" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="7" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="7" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="7" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="7" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="7" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A194" s="7" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="7" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="7" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="7" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="7" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="7" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A200" s="7" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="7" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="7" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A203" s="7" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="7" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A205" s="7" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A206" s="7" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A207" s="7" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A208" s="7" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A209" s="7" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="7" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A211" s="7" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A212" s="7" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A213" s="7" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A214" s="7" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A215" s="7" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="7" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="7" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A218" s="7" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A219" s="7" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="7" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A221" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="7" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A223" s="7" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="7" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="7" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="7" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A227" s="7" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A228" s="7" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="7" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A230" s="7" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="7" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A232" s="7" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A233" s="7" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A234" s="7" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A235" s="7" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="7" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A237" s="7" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A238" s="7" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A239" s="7" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="7" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A241" s="7" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A242" s="7" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A243" s="7" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A244" s="7" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A245" s="7" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A246" s="7" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A247" s="7" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A248" s="7" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="7" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A250" s="7" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A251" s="7" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="7" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A253" s="7" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A254" s="7" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A255" s="7" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A256" s="7" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A257" s="7" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A258" s="7" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A259" s="7" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A260" s="7" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A261" s="7" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A262" s="7" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A263" s="7" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="7" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A265" s="7" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A266" s="7" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A267" s="7" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A268" s="7" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A269" s="7" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A270" s="7" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="7" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A272" s="7" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A273" s="7" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A274" s="7" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A275" s="7" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A276" s="7" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="7" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A278" s="7" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="7" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A280" s="7" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="7" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A282" s="7" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A283" s="7" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A284" s="7" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A285" s="7" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A286" s="7" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A287" s="7" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A288" s="7" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A289" s="7" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A290" s="7" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A291" s="7" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A292" s="7" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A293" s="7" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A294" s="7" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="7" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A296" s="7" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A297" s="7" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="7" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="7" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="7" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A301" s="7" t="s">
         <v>801</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8604,6 +9517,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010024512A502B62964ABA8BD8024FB3D596" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="149e36256e9a5567992cc7a427977292">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48862766-63ef-4678-be2c-e63663596ac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9368776b68e647c7ffa48947720ddc21" ns2:_="">
     <xsd:import namespace="48862766-63ef-4678-be2c-e63663596ac4"/>
@@ -8761,22 +9689,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFC83E6-B82D-49BA-A268-03DA4FFD1877}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51B1C234-F067-4626-B0C0-EB5976DA8EB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32A9200-2611-4866-B98A-336FA2D88411}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8792,21 +9722,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51B1C234-F067-4626-B0C0-EB5976DA8EB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFC83E6-B82D-49BA-A268-03DA4FFD1877}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>